--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H2">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I2">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J2">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N2">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O2">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P2">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q2">
-        <v>97.67362531233378</v>
+        <v>101.3116166319927</v>
       </c>
       <c r="R2">
-        <v>879.0626278110041</v>
+        <v>911.804549687934</v>
       </c>
       <c r="S2">
-        <v>0.01235787253286931</v>
+        <v>0.0109523910256874</v>
       </c>
       <c r="T2">
-        <v>0.0123578725328693</v>
+        <v>0.0109523910256874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H3">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I3">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J3">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>122.56588</v>
       </c>
       <c r="O3">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P3">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q3">
-        <v>122.5347755033422</v>
+        <v>99.47939808006221</v>
       </c>
       <c r="R3">
-        <v>1102.81297953008</v>
+        <v>895.31458272056</v>
       </c>
       <c r="S3">
-        <v>0.01550335755094415</v>
+        <v>0.01075431725396828</v>
       </c>
       <c r="T3">
-        <v>0.01550335755094414</v>
+        <v>0.01075431725396828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H4">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I4">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J4">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N4">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O4">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P4">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q4">
-        <v>0.1133492271831111</v>
+        <v>0.5847348351368888</v>
       </c>
       <c r="R4">
-        <v>1.020143044648</v>
+        <v>5.262613516232</v>
       </c>
       <c r="S4">
-        <v>1.434118265549063E-05</v>
+        <v>6.32133290698838E-05</v>
       </c>
       <c r="T4">
-        <v>1.434118265549062E-05</v>
+        <v>6.32133290698838E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H5">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I5">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J5">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N5">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O5">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P5">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q5">
-        <v>11.80846251392889</v>
+        <v>15.31291089594311</v>
       </c>
       <c r="R5">
-        <v>106.27616262536</v>
+        <v>137.816198063488</v>
       </c>
       <c r="S5">
-        <v>0.001494031516590709</v>
+        <v>0.001655417152043717</v>
       </c>
       <c r="T5">
-        <v>0.001494031516590708</v>
+        <v>0.001655417152043717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H6">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I6">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J6">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N6">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O6">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P6">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q6">
-        <v>0.2171498781977778</v>
+        <v>0.025442486046</v>
       </c>
       <c r="R6">
-        <v>1.95434890378</v>
+        <v>0.228982374414</v>
       </c>
       <c r="S6">
-        <v>2.747425936853573E-05</v>
+        <v>2.750484743063433E-06</v>
       </c>
       <c r="T6">
-        <v>2.747425936853571E-05</v>
+        <v>2.750484743063433E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>284.701828</v>
       </c>
       <c r="I7">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J7">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N7">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O7">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P7">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q7">
-        <v>3090.546498001103</v>
+        <v>3948.602631100577</v>
       </c>
       <c r="R7">
-        <v>27814.91848200993</v>
+        <v>35537.42367990519</v>
       </c>
       <c r="S7">
-        <v>0.3910224439512074</v>
+        <v>0.4268675346279588</v>
       </c>
       <c r="T7">
-        <v>0.3910224439512071</v>
+        <v>0.4268675346279588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>284.701828</v>
       </c>
       <c r="I8">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J8">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>122.56588</v>
       </c>
       <c r="O8">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P8">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q8">
         <v>3877.192231825403</v>
@@ -948,10 +948,10 @@
         <v>34894.73008642864</v>
       </c>
       <c r="S8">
-        <v>0.4905505169191163</v>
+        <v>0.4191476438379112</v>
       </c>
       <c r="T8">
-        <v>0.4905505169191159</v>
+        <v>0.4191476438379112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>284.701828</v>
       </c>
       <c r="I9">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J9">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N9">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O9">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P9">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q9">
-        <v>3.586547094998221</v>
+        <v>22.78993846188977</v>
       </c>
       <c r="R9">
-        <v>32.27892385498399</v>
+        <v>205.109446157008</v>
       </c>
       <c r="S9">
-        <v>0.0004537774828300956</v>
+        <v>0.002463728502059541</v>
       </c>
       <c r="T9">
-        <v>0.0004537774828300953</v>
+        <v>0.002463728502059541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>284.701828</v>
       </c>
       <c r="I10">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J10">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N10">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O10">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P10">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q10">
-        <v>373.6382503720977</v>
+        <v>596.8180378876301</v>
       </c>
       <c r="R10">
-        <v>3362.74425334888</v>
+        <v>5371.362340988671</v>
       </c>
       <c r="S10">
-        <v>0.0472734973923368</v>
+        <v>0.06451959547612914</v>
       </c>
       <c r="T10">
-        <v>0.04727349739233677</v>
+        <v>0.06451959547612914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>284.701828</v>
       </c>
       <c r="I11">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J11">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N11">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O11">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P11">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q11">
-        <v>6.870962283415556</v>
+        <v>0.9916164669239999</v>
       </c>
       <c r="R11">
-        <v>61.83866055074001</v>
+        <v>8.924548202316</v>
       </c>
       <c r="S11">
-        <v>0.0008693286012992905</v>
+        <v>0.000107199664306143</v>
       </c>
       <c r="T11">
-        <v>0.0008693286012992898</v>
+        <v>0.000107199664306143</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H12">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I12">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J12">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N12">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O12">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P12">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q12">
-        <v>7.652130969755999</v>
+        <v>37.24828726451233</v>
       </c>
       <c r="R12">
-        <v>68.869178727804</v>
+        <v>335.234585380611</v>
       </c>
       <c r="S12">
-        <v>0.0009681637066984667</v>
+        <v>0.004026762386389996</v>
       </c>
       <c r="T12">
-        <v>0.0009681637066984661</v>
+        <v>0.004026762386389996</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H13">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I13">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J13">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>122.56588</v>
       </c>
       <c r="O13">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P13">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q13">
-        <v>9.599849985119999</v>
+        <v>36.57465273747111</v>
       </c>
       <c r="R13">
-        <v>86.39864986607999</v>
+        <v>329.17187463724</v>
       </c>
       <c r="S13">
-        <v>0.001214593213586798</v>
+        <v>0.003953938469510265</v>
       </c>
       <c r="T13">
-        <v>0.001214593213586797</v>
+        <v>0.003953938469510265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H14">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I14">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J14">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N14">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O14">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P14">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q14">
-        <v>0.008880218471999999</v>
+        <v>0.2149839459364444</v>
       </c>
       <c r="R14">
-        <v>0.07992196624799999</v>
+        <v>1.934855513428</v>
       </c>
       <c r="S14">
-        <v>1.123543920788102E-06</v>
+        <v>2.324104893809025E-05</v>
       </c>
       <c r="T14">
-        <v>1.123543920788101E-06</v>
+        <v>2.324104893809025E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H15">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I15">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J15">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N15">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O15">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P15">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q15">
-        <v>0.9251207930399999</v>
+        <v>5.629953630883555</v>
       </c>
       <c r="R15">
-        <v>8.32608713736</v>
+        <v>50.66958267795199</v>
       </c>
       <c r="S15">
-        <v>0.0001170482287448344</v>
+        <v>0.0006086316226292801</v>
       </c>
       <c r="T15">
-        <v>0.0001170482287448343</v>
+        <v>0.0006086316226292801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H16">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I16">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J16">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N16">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O16">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P16">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q16">
-        <v>0.01701236442</v>
+        <v>0.009354199059</v>
       </c>
       <c r="R16">
-        <v>0.15311127978</v>
+        <v>0.08418779153100001</v>
       </c>
       <c r="S16">
-        <v>2.152440132254756E-06</v>
+        <v>1.011244803233479E-06</v>
       </c>
       <c r="T16">
-        <v>2.152440132254754E-06</v>
+        <v>1.011244803233479E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H17">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I17">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J17">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N17">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O17">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P17">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q17">
-        <v>122.0625809947787</v>
+        <v>213.7377224273667</v>
       </c>
       <c r="R17">
-        <v>1098.563228953008</v>
+        <v>1923.6395018463</v>
       </c>
       <c r="S17">
-        <v>0.01544361450845044</v>
+        <v>0.02310632473142396</v>
       </c>
       <c r="T17">
-        <v>0.01544361450845043</v>
+        <v>0.02310632473142396</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H18">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I18">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J18">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>122.56588</v>
       </c>
       <c r="O18">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P18">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q18">
-        <v>153.1315225755733</v>
+        <v>209.8722800102222</v>
       </c>
       <c r="R18">
-        <v>1378.18370318016</v>
+        <v>1888.850520092</v>
       </c>
       <c r="S18">
-        <v>0.01937452235136984</v>
+        <v>0.02268844731275019</v>
       </c>
       <c r="T18">
-        <v>0.01937452235136983</v>
+        <v>0.02268844731275019</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H19">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I19">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J19">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N19">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O19">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P19">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q19">
-        <v>0.1416523568106667</v>
+        <v>1.233618572488889</v>
       </c>
       <c r="R19">
-        <v>1.274871211296</v>
+        <v>11.1025671524</v>
       </c>
       <c r="S19">
-        <v>1.792215415214748E-05</v>
+        <v>0.0001333615377151332</v>
       </c>
       <c r="T19">
-        <v>1.792215415214747E-05</v>
+        <v>0.0001333615377151332</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H20">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I20">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J20">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N20">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O20">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P20">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q20">
-        <v>14.75701764341333</v>
+        <v>32.30573953351111</v>
       </c>
       <c r="R20">
-        <v>132.81315879072</v>
+        <v>290.7516558016</v>
       </c>
       <c r="S20">
-        <v>0.001867088913915609</v>
+        <v>0.003492443448319126</v>
       </c>
       <c r="T20">
-        <v>0.001867088913915608</v>
+        <v>0.003492443448319126</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H21">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I21">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J21">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N21">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O21">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P21">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q21">
-        <v>0.2713718725066667</v>
+        <v>0.0536761647</v>
       </c>
       <c r="R21">
-        <v>2.442346852560001</v>
+        <v>0.4830854823</v>
       </c>
       <c r="S21">
-        <v>3.433454014550614E-05</v>
+        <v>5.802714082522642E-06</v>
       </c>
       <c r="T21">
-        <v>3.433454014550612E-05</v>
+        <v>5.802714082522642E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H22">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N22">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O22">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P22">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q22">
-        <v>4.627648446633333</v>
+        <v>23.46506192821467</v>
       </c>
       <c r="R22">
-        <v>41.6488360197</v>
+        <v>211.185557353932</v>
       </c>
       <c r="S22">
-        <v>0.0005854998158157233</v>
+        <v>0.002536713382171233</v>
       </c>
       <c r="T22">
-        <v>0.0005854998158157229</v>
+        <v>0.002536713382171233</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H23">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>122.56588</v>
       </c>
       <c r="O23">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P23">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q23">
-        <v>5.805537182666666</v>
+        <v>23.04069675454222</v>
       </c>
       <c r="R23">
-        <v>52.249834644</v>
+        <v>207.36627079088</v>
       </c>
       <c r="S23">
-        <v>0.0007345287764103127</v>
+        <v>0.002490836971604938</v>
       </c>
       <c r="T23">
-        <v>0.000734528776410312</v>
+        <v>0.002490836971604938</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H24">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N24">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O24">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P24">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q24">
-        <v>0.005370337933333333</v>
+        <v>0.1354320419928889</v>
       </c>
       <c r="R24">
-        <v>0.0483330414</v>
+        <v>1.218888377936</v>
       </c>
       <c r="S24">
-        <v>6.794664519346529E-07</v>
+        <v>1.464101285345624E-05</v>
       </c>
       <c r="T24">
-        <v>6.794664519346523E-07</v>
+        <v>1.464101285345624E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H25">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N25">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O25">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P25">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q25">
-        <v>0.5594694886666667</v>
+        <v>3.546665371847111</v>
       </c>
       <c r="R25">
-        <v>5.035225398000001</v>
+        <v>31.919988346624</v>
       </c>
       <c r="S25">
-        <v>7.078525656095605E-05</v>
+        <v>0.0003834157156018383</v>
       </c>
       <c r="T25">
-        <v>7.0785256560956E-05</v>
+        <v>0.0003834157156018383</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5639586666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.691876</v>
+      </c>
+      <c r="I26">
+        <v>0.005426244129561024</v>
+      </c>
+      <c r="J26">
+        <v>0.005426244129561024</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G26">
-        <v>0.1421</v>
-      </c>
-      <c r="H26">
-        <v>0.4263</v>
-      </c>
-      <c r="I26">
-        <v>0.001392795009665468</v>
-      </c>
-      <c r="J26">
-        <v>0.001392795009665468</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N26">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O26">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P26">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q26">
-        <v>0.01028827683333334</v>
+        <v>0.005892804108</v>
       </c>
       <c r="R26">
-        <v>0.09259449150000001</v>
+        <v>0.05303523697200001</v>
       </c>
       <c r="S26">
-        <v>1.301694426541889E-06</v>
+        <v>6.370473295577857E-07</v>
       </c>
       <c r="T26">
-        <v>1.301694426541888E-06</v>
+        <v>6.370473295577857E-07</v>
       </c>
     </row>
   </sheetData>
